--- a/pokemon.xlsx
+++ b/pokemon.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbpop\Dropbox\aulafgvsalario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D12A89-83AB-42C8-8DAB-1ABA11C40E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79BCC13-E11A-436E-ABF9-CBB2AD850879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="pokemon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Plan1!$A$1:$D$193</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">pokemon!$A$1:$D$193</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -403,7 +403,9 @@
   </sheetPr>
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
